--- a/outputs-r202/c__Bacilli.xlsx
+++ b/outputs-r202/c__Bacilli.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ66"/>
+  <dimension ref="A1:AK66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -729,6 +734,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -843,6 +853,11 @@
           <t>o__Acholeplasmatales</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -957,6 +972,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1071,6 +1091,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1185,6 +1210,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1299,6 +1329,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1413,6 +1448,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1527,6 +1567,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1641,6 +1686,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1755,6 +1805,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1869,6 +1924,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1983,6 +2043,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2097,6 +2162,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2211,6 +2281,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2325,6 +2400,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2439,6 +2519,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2553,6 +2638,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2667,6 +2757,11 @@
           <t>o__Mycoplasmatales</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2781,6 +2876,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2895,6 +2995,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3009,6 +3114,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3123,6 +3233,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -3237,6 +3352,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -3351,6 +3471,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -3465,6 +3590,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -3579,6 +3709,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -3693,6 +3828,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3807,6 +3947,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3921,6 +4066,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -4035,6 +4185,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4149,6 +4304,11 @@
           <t>o__Bacillales</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4263,6 +4423,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4377,6 +4542,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4491,6 +4661,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -4605,6 +4780,11 @@
           <t>o__Izemoplasmatales</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>o__Izemoplasmatales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -4719,6 +4899,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -4833,6 +5018,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -4947,6 +5137,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -5061,6 +5256,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5175,6 +5375,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5289,6 +5494,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5403,6 +5613,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5517,6 +5732,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5631,6 +5851,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5745,6 +5970,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -5859,6 +6089,11 @@
           <t>o__Lactobacillales</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5973,6 +6208,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -6087,6 +6327,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -6201,6 +6446,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -6315,6 +6565,11 @@
           <t>o__Bacillales_A</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>o__Bacillales_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -6429,6 +6684,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -6543,6 +6803,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -6657,6 +6922,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -6771,6 +7041,11 @@
           <t>o__RFN20</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -6885,6 +7160,11 @@
           <t>o__Paenibacillales</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>o__Paenibacillales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -6999,6 +7279,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -7113,6 +7398,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -7227,6 +7517,11 @@
           <t>o__ML615J-28</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -7341,6 +7636,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -7455,6 +7755,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -7569,6 +7874,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -7683,6 +7993,11 @@
           <t>o__RF39</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -7797,6 +8112,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -7911,6 +8231,11 @@
           <t>o__Erysipelotrichales</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -8021,6 +8346,11 @@
         <v>0.9860289278379627</v>
       </c>
       <c r="AJ66" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
         <is>
           <t>o__Erysipelotrichales</t>
         </is>

--- a/outputs-r202/c__Bacilli.xlsx
+++ b/outputs-r202/c__Bacilli.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK66"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,586 +624,586 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG005.fasta</t>
+          <t>RUG016.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.911969949307503e-08</v>
+        <v>0.000604198702203867</v>
       </c>
       <c r="C2" t="n">
-        <v>2.925638770450706e-09</v>
+        <v>3.797010835695787e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.907802136521565e-08</v>
+        <v>5.659295701330032e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>5.011029556760008e-06</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>4.646869681311918e-10</v>
+        <v>9.004953927474235e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>4.328589436598653e-12</v>
+        <v>5.445547485644068e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09100753875185109</v>
+        <v>1.814385583855621e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.326701607789785e-06</v>
+        <v>3.250534222722605e-09</v>
       </c>
       <c r="L2" t="n">
-        <v>4.486750806775021e-09</v>
+        <v>8.370716973960947e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00190495299723549</v>
+        <v>0.9952515309333271</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>6.710189979098241e-12</v>
+        <v>4.1716333508047e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>8.545443005405035e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9048715816989998</v>
+        <v>3.34758411017952e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001001778037395218</v>
+        <v>1.305212428793382e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0007245636159740996</v>
+        <v>0.003395436568254652</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.07497071483673e-08</v>
+        <v>2.252526372218175e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.501150926061254e-12</v>
+        <v>4.330671758873382e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.43286732642666e-07</v>
+        <v>0.0006477780392378702</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0004815670422695261</v>
+        <v>3.369713094855597e-09</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>1.963140719968994e-10</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220140433053974e-14</v>
+        <v>2.220194512462789e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9048715816989998</v>
+        <v>0.9952515309333271</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG012.fasta</t>
+          <t>RUG017.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9814590743075196</v>
+        <v>0.0005986278817291485</v>
       </c>
       <c r="C3" t="n">
-        <v>4.197065700444348e-12</v>
+        <v>2.695552858209212e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.967038498982059e-08</v>
+        <v>1.223060187045744e-11</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.845631799187101e-07</v>
+        <v>0.0005522945838431812</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>1.083748062477197e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.633373287086754e-10</v>
+        <v>1.911248415308493e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>1.803497212582046e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>3.86676630546491e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0003821639008296689</v>
+        <v>0.9955689458400963</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>3.596759187155583e-07</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>1.329859590008565e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>3.308861018814291e-07</v>
+        <v>3.200296872801971e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>4.859909315233941e-07</v>
+        <v>8.474773829269882e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01376113742528058</v>
+        <v>0.002300397755014355</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.294667508756425e-05</v>
+        <v>7.256262409627925e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.004383507655443553</v>
+        <v>6.711849766568746e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.338204328015451e-09</v>
+        <v>0.0009612222092683805</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.741905811880136e-08</v>
+        <v>2.146750959109905e-09</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>1.177188174678833e-09</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.220311665417367e-14</v>
+        <v>2.220193325618552e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.9814590743075196</v>
+        <v>0.9955689458400963</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>o__Acholeplasmatales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>o__Acholeplasmatales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG016.fasta</t>
+          <t>RUG021.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000604198702203867</v>
+        <v>0.000366634846733469</v>
       </c>
       <c r="C4" t="n">
-        <v>3.797010835695787e-11</v>
+        <v>2.626842009734331e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>5.659295701330032e-12</v>
+        <v>3.616804733883342e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>7.973749027221097e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>9.004953927474235e-05</v>
+        <v>7.875450399445978e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>5.445547485644068e-07</v>
+        <v>1.183644005474588e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.814385583855621e-06</v>
+        <v>7.852715504410636e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.250534222722605e-09</v>
+        <v>0.001117538749482934</v>
       </c>
       <c r="L4" t="n">
-        <v>8.370716973960947e-11</v>
+        <v>1.871324448463643e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9952515309333271</v>
+        <v>0.002379388711747423</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>4.1716333508047e-07</v>
+        <v>4.909443368090778e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>8.545443005405035e-13</v>
+        <v>9.137674075541406e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>3.34758411017952e-07</v>
+        <v>5.409827033519773e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>1.305212428793382e-06</v>
+        <v>5.265344736043861e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003395436568254652</v>
+        <v>0.0003370676364874667</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.252526372218175e-06</v>
+        <v>1.980692632685205e-06</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.330671758873382e-06</v>
+        <v>2.290094057257904e-06</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0006477780392378702</v>
+        <v>0.9956989547566413</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.369713094855597e-09</v>
+        <v>3.640309457517685e-06</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>3.463697992769904e-08</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.963140719968994e-10</v>
+        <v>7.99301472226415e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220194512462789e-14</v>
+        <v>2.22018869972641e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.9952515309333271</v>
+        <v>0.9956989547566413</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG017.fasta</t>
+          <t>RUG026.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005986278817291485</v>
+        <v>6.289893959918002e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.695552858209212e-11</v>
+        <v>1.509043203606114e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>1.223060187045744e-11</v>
+        <v>0.0001520853417256553</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.794393698545341e-10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005522945838431812</v>
+        <v>3.714728224864309e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>1.083748062477197e-06</v>
+        <v>2.790311636828779e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.911248415308493e-06</v>
+        <v>4.309255786089354e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010772e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010771e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>1.803497212582046e-08</v>
+        <v>6.92251009566671e-10</v>
       </c>
       <c r="L5" t="n">
-        <v>3.86676630546491e-11</v>
+        <v>4.865805625739778e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.91293405701078e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010777e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010777e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.91293405701078e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9955689458400963</v>
+        <v>0.0478720089481324</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010785e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010742e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>3.596759187155583e-07</v>
+        <v>2.573983651464017e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.329859590008565e-12</v>
+        <v>7.825997259451802e-12</v>
       </c>
       <c r="V5" t="n">
-        <v>3.200296872801971e-07</v>
+        <v>0.0007364021769179149</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010515e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>8.474773829269882e-07</v>
+        <v>0.9110576496701153</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002300397755014355</v>
+        <v>0.03986830400525426</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.256262409627925e-06</v>
+        <v>2.773630413123594e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.711849766568746e-06</v>
+        <v>0.0002126703176223326</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0009612222092683805</v>
+        <v>4.772730109285756e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010525e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.146750959109905e-09</v>
+        <v>2.463822670480388e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010525e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.912934057010539e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.177188174678833e-09</v>
+        <v>9.517996203320539e-11</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220193325618552e-14</v>
+        <v>7.91293405701054e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9955689458400963</v>
+        <v>0.9110576496701153</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__ML615J-28</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__ML615J-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG021.fasta</t>
+          <t>RUG042.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000366634846733469</v>
+        <v>3.001257126247001e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.626842009734331e-07</v>
+        <v>2.901254386551973e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>3.616804733883342e-10</v>
+        <v>4.451117412905694e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>7.973749027221097e-13</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>7.875450399445978e-08</v>
+        <v>0.0003230001240104345</v>
       </c>
       <c r="G6" t="n">
-        <v>1.183644005474588e-05</v>
+        <v>2.064078282924047e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>7.852715504410636e-10</v>
+        <v>2.848320388306718e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001117538749482934</v>
+        <v>6.181212441483805e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>1.871324448463643e-07</v>
+        <v>2.393995872415322e-08</v>
       </c>
       <c r="M6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002379388711747423</v>
+        <v>0.005696034731490628</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>4.909443368090778e-06</v>
+        <v>2.366772684986542e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>9.137674075541406e-06</v>
+        <v>2.561143164596645e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>5.409827033519773e-06</v>
+        <v>8.394427321302226e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>5.265344736043861e-05</v>
+        <v>7.61521357578234e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0003370676364874667</v>
+        <v>0.0003544901788123003</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.980692632685205e-06</v>
+        <v>1.643345822258855e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.290094057257904e-06</v>
+        <v>9.615373668024701e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9956989547566413</v>
+        <v>0.9934040702601035</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.640309457517685e-06</v>
+        <v>6.449644490359126e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.463697992769904e-08</v>
+        <v>2.100078906259511e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.99301472226415e-06</v>
+        <v>3.154213428401267e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.22018869972641e-14</v>
+        <v>2.22020625179151e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9956989547566413</v>
+        <v>0.9934040702601035</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1219,348 +1219,348 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG026.fasta</t>
+          <t>RUG049.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.289893959918002e-05</v>
+        <v>5.672686538728713e-12</v>
       </c>
       <c r="C7" t="n">
-        <v>1.509043203606114e-08</v>
+        <v>0.01812121440235961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001520853417256553</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>7.794393698545341e-10</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>3.714728224864309e-07</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790311636828779e-06</v>
+        <v>0.1079329317624471</v>
       </c>
       <c r="H7" t="n">
-        <v>4.309255786089354e-08</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>7.912934057010772e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>7.912934057010771e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>6.92251009566671e-10</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>4.865805625739778e-10</v>
+        <v>0.0008532135558285682</v>
       </c>
       <c r="M7" t="n">
-        <v>7.91293405701078e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>7.912934057010777e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>7.912934057010777e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>7.91293405701078e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0478720089481324</v>
+        <v>0.8316863766079567</v>
       </c>
       <c r="R7" t="n">
-        <v>7.912934057010785e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>7.912934057010742e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>2.573983651464017e-06</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>7.825997259451802e-12</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0007364021769179149</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.912934057010515e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9110576496701153</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03986830400525426</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.773630413123594e-06</v>
+        <v>8.690585374134744e-13</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002126703176223326</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.772730109285756e-06</v>
+        <v>0.04140626366428826</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.912934057010525e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.463822670480388e-05</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.912934057010525e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.912934057010539e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.517996203320539e-11</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.91293405701054e-14</v>
+        <v>2.223298869513222e-14</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.9110576496701153</v>
+        <v>0.8316863766079567</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>o__ML615J-28</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>o__ML615J-28</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG042.fasta</t>
+          <t>RUG050.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.001257126247001e-05</v>
+        <v>2.712154501516729e-11</v>
       </c>
       <c r="C8" t="n">
-        <v>2.901254386551973e-08</v>
+        <v>0.0005784222303501607</v>
       </c>
       <c r="D8" t="n">
-        <v>4.451117412905694e-10</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003230001240104345</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.064078282924047e-07</v>
+        <v>0.1854667475976582</v>
       </c>
       <c r="H8" t="n">
-        <v>2.848320388306718e-09</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>6.181212441483805e-06</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.393995872415322e-08</v>
+        <v>0.02043702754521638</v>
       </c>
       <c r="M8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.005696034731490628</v>
+        <v>0.7868399611125304</v>
       </c>
       <c r="R8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>2.366772684986542e-06</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>2.561143164596645e-05</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>8.394427321302226e-09</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>7.61521357578234e-06</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0003544901788123003</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.643345822258855e-06</v>
+        <v>2.631386693304283e-12</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.615373668024701e-05</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.9934040702601035</v>
+        <v>0.00667784148391431</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.449644490359126e-09</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.100078906259511e-05</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.154213428401267e-05</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.22020625179151e-14</v>
+        <v>2.221887055949211e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.9934040702601035</v>
+        <v>0.7868399611125304</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG049.fasta</t>
+          <t>RUG051.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.672686538728713e-12</v>
+        <v>5.019873948464396e-12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01812121440235961</v>
+        <v>0.01684981637227295</v>
       </c>
       <c r="D9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1079329317624471</v>
+        <v>0.1143204568393954</v>
       </c>
       <c r="H9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008532135558285682</v>
+        <v>0.001479241446785311</v>
       </c>
       <c r="M9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8316863766079567</v>
+        <v>0.8383651201811141</v>
       </c>
       <c r="R9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.690585374134744e-13</v>
+        <v>9.743819376899707e-13</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04140626366428826</v>
+        <v>0.02898536515386008</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.223298869513222e-14</v>
+        <v>2.222566771480892e-14</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.8316863766079567</v>
+        <v>0.8383651201811141</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -1933,110 +1933,110 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG068.fasta</t>
+          <t>RUG123.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03030295490970206</v>
+        <v>0.0005687342148882319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03030295490968088</v>
+        <v>3.610123758339639e-11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03030295490968088</v>
+        <v>2.738334300188825e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03030295490968088</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03030295490968088</v>
+        <v>1.646346769275906e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03030295490971202</v>
+        <v>2.682857026881915e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03030295490968089</v>
+        <v>1.049102553890409e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03030295490968089</v>
+        <v>3.739094201604151e-10</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03030295490968089</v>
+        <v>3.434603550396104e-11</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03030295699084301</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03030535016409851</v>
+        <v>0.9946076923018513</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03030295490968089</v>
+        <v>3.598222516366446e-07</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03030295490968089</v>
+        <v>7.458590120072936e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.710280578774384e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03030295490968089</v>
+        <v>1.815666385109171e-06</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03030295490968089</v>
+        <v>0.004382265302383118</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03030304555455355</v>
+        <v>8.469156157131935e-07</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.264192599268702e-06</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03030295490970649</v>
+        <v>0.0004179679093314416</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.03030295490968089</v>
+        <v>1.228893993355999e-09</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03030295490968089</v>
+        <v>1.136411325626881e-10</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.03030295490968089</v>
+        <v>2.220198498690716e-14</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.03030535016409851</v>
+        <v>0.9946076923018513</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -2045,355 +2045,355 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG115.fasta</t>
+          <t>RUG131.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.518113480978673e-06</v>
+        <v>6.285159640771897e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.4280604221807e-08</v>
+        <v>2.799148024112328e-09</v>
       </c>
       <c r="D14" t="n">
-        <v>8.937791492780145e-13</v>
+        <v>1.371980976788341e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>3.311707177585703e-11</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>4.791279517057637e-09</v>
+        <v>4.78720871280583e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>6.71059895483953e-11</v>
+        <v>1.869760988470916e-11</v>
       </c>
       <c r="H14" t="n">
-        <v>1.125705869977766e-05</v>
+        <v>3.343185678664183e-11</v>
       </c>
       <c r="I14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>3.523314210173192e-08</v>
+        <v>2.572013082733731e-10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.361026838837792e-05</v>
+        <v>1.27627425303292e-08</v>
       </c>
       <c r="M14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6442583432221276</v>
+        <v>0.01312472612118683</v>
       </c>
       <c r="R14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="S14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>4.644967676876979e-08</v>
+        <v>5.39037962611717e-08</v>
       </c>
       <c r="U14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>0.0003720956368239828</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3551896307357293</v>
+        <v>2.852778712599983e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>6.459498161182429e-07</v>
+        <v>0.01141124533989409</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0002815372540940624</v>
+        <v>0.0001593425987512397</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.532958149244859e-09</v>
+        <v>1.359376475839141e-06</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.205185698307588e-09</v>
+        <v>4.569866336029994e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.341129271634693e-09</v>
+        <v>0.9748208930499728</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0002423514622380389</v>
+        <v>1.192979560275375e-08</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>7.810679934559389e-10</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.220179543176782e-14</v>
+        <v>2.220426341918281e-14</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.6442583432221276</v>
+        <v>0.9748208930499728</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__RFN20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG123.fasta</t>
+          <t>RUG206.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0005687342148882319</v>
+        <v>0.0001666908921603466</v>
       </c>
       <c r="C15" t="n">
-        <v>3.610123758339639e-11</v>
+        <v>7.058681485940149e-10</v>
       </c>
       <c r="D15" t="n">
-        <v>2.738334300188825e-12</v>
+        <v>2.524982231855675e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>1.646346769275906e-05</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.682857026881915e-07</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>1.049102553890409e-06</v>
+        <v>2.210020501242584e-10</v>
       </c>
       <c r="I15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>3.739094201604151e-10</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>3.434603550396104e-11</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="M15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="O15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9946076923018513</v>
+        <v>7.672220920975394e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="S15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="T15" t="n">
-        <v>3.598222516366446e-07</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="U15" t="n">
-        <v>7.458590120072936e-13</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="V15" t="n">
-        <v>2.710280578774384e-07</v>
+        <v>2.086848148598639e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="X15" t="n">
-        <v>1.815666385109171e-06</v>
+        <v>1.214529058997003e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.004382265302383118</v>
+        <v>0.9998050713517304</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.469156157131935e-07</v>
+        <v>3.476675636037751e-10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.264192599268702e-06</v>
+        <v>1.129109482428545e-12</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0004179679093314416</v>
+        <v>1.888854693587052e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.228893993355999e-09</v>
+        <v>2.220723241436438e-14</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.136411325626881e-10</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.220198498690716e-14</v>
+        <v>2.220723241436436e-14</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.9946076923018513</v>
+        <v>0.9998050713517304</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Mycoplasmatales</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Mycoplasmatales</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG128.fasta</t>
+          <t>RUG261.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.810263883530016e-07</v>
+        <v>0.0004558838600983902</v>
       </c>
       <c r="C16" t="n">
-        <v>3.849002430211995e-09</v>
+        <v>4.475030472683764e-11</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.403058031902576e-12</v>
       </c>
       <c r="E16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>4.073234926873852e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.383440811588218e-08</v>
+        <v>1.770763457504936e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>1.062916553116051e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>1.368381861167726e-10</v>
       </c>
       <c r="L16" t="n">
-        <v>6.22111335289829e-10</v>
+        <v>8.016730757872569e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8994847165165744</v>
+        <v>0.9941350189981873</v>
       </c>
       <c r="R16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="S16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="T16" t="n">
-        <v>2.848906389980514e-12</v>
+        <v>4.260558073774006e-07</v>
       </c>
       <c r="U16" t="n">
-        <v>1.216978645763236e-05</v>
+        <v>5.763410014793229e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>2.302790903123226e-05</v>
+        <v>3.213823854192588e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="X16" t="n">
-        <v>6.311299790658359e-12</v>
+        <v>2.70536915746933e-06</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.060079194746903e-07</v>
+        <v>0.005132884100041244</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.198494084036183e-09</v>
+        <v>3.280203985390687e-07</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.170610052193589e-11</v>
+        <v>1.492374693559617e-06</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.833863280367363e-10</v>
+        <v>0.0002656246952677691</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1004785759449386</v>
+        <v>1.624713890434045e-09</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.637735413518698e-11</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.220148411068818e-14</v>
+        <v>2.2201968686448e-14</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.8994847165165744</v>
+        <v>0.9941350189981873</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -2409,467 +2409,467 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG131.fasta</t>
+          <t>RUG262.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.285159640771897e-05</v>
+        <v>0.0005376453428106876</v>
       </c>
       <c r="C17" t="n">
-        <v>2.799148024112328e-09</v>
+        <v>3.974069541562936e-11</v>
       </c>
       <c r="D17" t="n">
-        <v>1.371980976788341e-06</v>
+        <v>3.016286652229695e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>4.78720871280583e-08</v>
+        <v>1.821455799076876e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>1.869760988470916e-11</v>
+        <v>2.903713882964657e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>3.343185678664183e-11</v>
+        <v>1.29949111282886e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>2.572013082733731e-10</v>
+        <v>4.467812191562138e-10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27627425303292e-08</v>
+        <v>4.671018310871961e-11</v>
       </c>
       <c r="M17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="O17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01312472612118683</v>
+        <v>0.9947037061953079</v>
       </c>
       <c r="R17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="S17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>5.39037962611717e-08</v>
+        <v>3.782126895604109e-07</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0003720956368239828</v>
+        <v>6.212802527893701e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>2.852778712599983e-07</v>
+        <v>3.32667198451866e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01141124533989409</v>
+        <v>2.076581635684565e-06</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0001593425987512397</v>
+        <v>0.004410051144475118</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.359376475839141e-06</v>
+        <v>8.112652886956648e-07</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.569866336029994e-05</v>
+        <v>2.251003393387558e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.9748208930499728</v>
+        <v>0.0003229408962021812</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.192979560275375e-08</v>
+        <v>1.642818582879471e-09</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.810679934559389e-10</v>
+        <v>9.050720588739965e-11</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.220426341918281e-14</v>
+        <v>2.220195334897993e-14</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.9748208930499728</v>
+        <v>0.9947037061953079</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG187.fasta</t>
+          <t>RUG286.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.103815465058912e-09</v>
+        <v>0.000736238164309922</v>
       </c>
       <c r="C18" t="n">
-        <v>6.292997423482871e-10</v>
+        <v>3.008268493604173e-11</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.934315505974845e-12</v>
       </c>
       <c r="E18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.296381499672938e-09</v>
+        <v>4.053329321673336e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>3.902108728212162e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.876335637935261e-10</v>
+        <v>1.027561577961403e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>1.465373838948702e-09</v>
       </c>
       <c r="L18" t="n">
-        <v>2.689043785792108e-09</v>
+        <v>2.348907255395646e-11</v>
       </c>
       <c r="M18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="O18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00426034059927372</v>
+        <v>0.9948847398650862</v>
       </c>
       <c r="R18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="S18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="T18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>3.048488624061658e-07</v>
       </c>
       <c r="U18" t="n">
-        <v>6.238264167575044e-05</v>
+        <v>1.494311195049916e-12</v>
       </c>
       <c r="V18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.16001072911612e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0002512094697641491</v>
+        <v>1.190987617089259e-06</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.520996663378933e-08</v>
+        <v>0.003670607724726691</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.787581950779324e-09</v>
+        <v>2.346835894554795e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>3.489250160751266e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.9954260081499272</v>
+        <v>0.0006589122889769908</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.517031583516399e-11</v>
+        <v>9.158935082099637e-10</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>5.280463235516223e-10</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.220182412278543e-14</v>
+        <v>2.220201781776417e-14</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.9954260081499272</v>
+        <v>0.9948847398650862</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG206.fasta</t>
+          <t>RUG287.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0001666908921603466</v>
+        <v>1.179474207750666e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.058681485940149e-10</v>
+        <v>2.15646833104784e-11</v>
       </c>
       <c r="D19" t="n">
-        <v>2.524982231855675e-07</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>1.027015993784598e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>3.54408649249093e-10</v>
       </c>
       <c r="H19" t="n">
-        <v>2.210020501242584e-10</v>
+        <v>1.065760634974606e-07</v>
       </c>
       <c r="I19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="O19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.672220920975394e-06</v>
+        <v>0.9824007891496603</v>
       </c>
       <c r="R19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="S19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="T19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>6.351711951952942e-09</v>
       </c>
       <c r="U19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>1.208589182810916e-11</v>
       </c>
       <c r="V19" t="n">
-        <v>2.086848148598639e-07</v>
+        <v>6.272555037593819e-09</v>
       </c>
       <c r="W19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="X19" t="n">
-        <v>1.214529058997003e-06</v>
+        <v>1.391249060571435e-07</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9998050713517304</v>
+        <v>0.003955772519467947</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.476675636037751e-10</v>
+        <v>8.190688644071624e-09</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.129109482428545e-12</v>
+        <v>5.690132032618072e-06</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.888854693587052e-05</v>
+        <v>0.01362557935204575</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.220723241436438e-14</v>
+        <v>9.330801672198441e-12</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>4.489423872204266e-09</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.220723241436436e-14</v>
+        <v>2.220297567210075e-14</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.9998050713517304</v>
+        <v>0.9824007891496603</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>o__Mycoplasmatales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>o__Mycoplasmatales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG214.fasta</t>
+          <t>RUG306.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.001247178427583e-11</v>
+        <v>0.01126721752531965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006752290725883788</v>
+        <v>5.698223832889277e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>8.655729528682614e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.094725764762432e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>2.420449006963238e-08</v>
+        <v>0.1801442382314568</v>
       </c>
       <c r="G20" t="n">
-        <v>1.949217836052683e-07</v>
+        <v>2.280944107619779e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.242636986287629e-10</v>
+        <v>0.1619471961046377</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.86614718387432e-11</v>
       </c>
       <c r="J20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="K20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.045404757157693e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007145981919920321</v>
+        <v>3.008401084301379e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874313e-11</v>
       </c>
       <c r="O20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874313e-11</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9860880276551786</v>
+        <v>0.2119419091494267</v>
       </c>
       <c r="R20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874314e-11</v>
       </c>
       <c r="S20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="T20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>0.000183759961384881</v>
       </c>
       <c r="U20" t="n">
-        <v>1.315636957463059e-06</v>
+        <v>1.86614718387432e-11</v>
       </c>
       <c r="V20" t="n">
-        <v>5.235530435343407e-13</v>
+        <v>0.1716873892342607</v>
       </c>
       <c r="W20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="X20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>6.074097644445564e-06</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.376199115847747e-10</v>
+        <v>0.1419228948879798</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.411213336953567e-07</v>
+        <v>1.197685240363578e-05</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>0.003855750660391444</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.061217612393446e-06</v>
+        <v>0.04815956763681836</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874318e-11</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.96209397668492e-06</v>
+        <v>0.06881987135134288</v>
       </c>
       <c r="AE20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874318e-11</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.22032306136913e-14</v>
+        <v>1.866147183874319e-11</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.9860880276551786</v>
+        <v>0.2119419091494267</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -2878,117 +2878,117 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Erysipelotrichales(reject)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG222.fasta</t>
+          <t>RUG319.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.917815373708369e-07</v>
+        <v>1.171832497158836e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.080395809194619e-08</v>
+        <v>1.214732587282455e-08</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>3.205144844711991e-12</v>
       </c>
       <c r="E21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>1.973043726465572e-08</v>
       </c>
       <c r="G21" t="n">
-        <v>2.572557383049307e-08</v>
+        <v>7.605636233223664e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>0.002671982129863493</v>
       </c>
       <c r="I21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>0.0001939410159014937</v>
       </c>
       <c r="L21" t="n">
-        <v>1.516366510070365e-09</v>
+        <v>3.813618208019254e-08</v>
       </c>
       <c r="M21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="O21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9549675637896002</v>
+        <v>0.9551173426864566</v>
       </c>
       <c r="R21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="S21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="T21" t="n">
-        <v>1.40120249777239e-12</v>
+        <v>1.52649586908286e-06</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0008980534552267849</v>
+        <v>5.342815702345309e-12</v>
       </c>
       <c r="V21" t="n">
-        <v>7.951526980713933e-06</v>
+        <v>1.107928039716381e-06</v>
       </c>
       <c r="W21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="X21" t="n">
-        <v>3.017338928033833e-12</v>
+        <v>1.335381958753943e-05</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.243201707752816e-07</v>
+        <v>0.0004088512633432305</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.747932936098834e-09</v>
+        <v>1.742837411474858e-06</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.737328790690731e-12</v>
+        <v>9.910042615301836e-05</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.160017475573325e-10</v>
+        <v>0.02296389177010865</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0441253729100733</v>
+        <v>0.01851461071479107</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>1.075849836411198e-12</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.220078111984085e-14</v>
+        <v>2.220369256155369e-14</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.9549675637896002</v>
+        <v>0.9551173426864566</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -3004,2133 +3004,2133 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG246.fasta</t>
+          <t>RUG343.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.002815900274017396</v>
+        <v>1.067198159927761e-09</v>
       </c>
       <c r="C22" t="n">
-        <v>5.140226208651777e-10</v>
+        <v>5.718576864283147e-10</v>
       </c>
       <c r="D22" t="n">
-        <v>1.368257758548924e-13</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>3.786610318047497e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>4.152525249743747e-08</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>1.297939165715662e-05</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>7.595616108147442e-06</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>3.786610318047337e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>3.786610318047345e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>1.058687815000519e-07</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>6.012572366665398e-08</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="M22" t="n">
-        <v>3.786610318047342e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>3.786610318047334e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="O22" t="n">
-        <v>3.786610318047334e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.786610318047343e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9543508909713196</v>
+        <v>0.001852970218466046</v>
       </c>
       <c r="R22" t="n">
-        <v>3.786610318047343e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="S22" t="n">
-        <v>3.786610318047342e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="T22" t="n">
-        <v>8.483598164857043e-08</v>
+        <v>1.210313434584655e-08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.985280966145376e-12</v>
+        <v>0.02747018124300836</v>
       </c>
       <c r="V22" t="n">
-        <v>2.715125267411472e-06</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="W22" t="n">
-        <v>3.78661031804734e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="X22" t="n">
-        <v>7.508270502481764e-06</v>
+        <v>0.0003629445003332044</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.003514224481663794</v>
+        <v>0.001748968334453204</v>
       </c>
       <c r="Z22" t="n">
-        <v>4.463351340876464e-06</v>
+        <v>2.137990437995546e-10</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0006984610517308394</v>
+        <v>0.9685649065002648</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03423735174305824</v>
+        <v>1.52229905367365e-08</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.786610318047344e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.004347616846372443</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="AE22" t="n">
-        <v>3.786610318047344e-14</v>
+        <v>2.400604531266343e-11</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.786610318047344e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="AG22" t="n">
-        <v>4.547457179331848e-12</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="AH22" t="n">
-        <v>3.786610318047343e-14</v>
+        <v>2.220216012759648e-14</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.9543508909713196</v>
+        <v>0.9685649065002648</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG261.fasta</t>
+          <t>RUG346.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0004558838600983902</v>
+        <v>6.130268451420191e-08</v>
       </c>
       <c r="C23" t="n">
-        <v>4.475030472683764e-11</v>
+        <v>5.342700122047767e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>2.403058031902576e-12</v>
+        <v>0.9806505185041874</v>
       </c>
       <c r="E23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>3.667478780945758e-10</v>
       </c>
       <c r="F23" t="n">
-        <v>4.073234926873852e-06</v>
+        <v>0.005190970656970618</v>
       </c>
       <c r="G23" t="n">
-        <v>1.770763457504936e-07</v>
+        <v>1.022425189622129e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>1.062916553116051e-06</v>
+        <v>1.289792691764864e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>1.368381861167726e-10</v>
+        <v>0.001229916812363649</v>
       </c>
       <c r="L23" t="n">
-        <v>8.016730757872569e-11</v>
+        <v>0.001946457161164264</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>5.051306493196074e-10</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="O23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9941350189981873</v>
+        <v>0.000973295912674856</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>4.260558073774006e-07</v>
+        <v>4.086313718250393e-09</v>
       </c>
       <c r="U23" t="n">
-        <v>5.763410014793229e-13</v>
+        <v>2.770297201006969e-06</v>
       </c>
       <c r="V23" t="n">
-        <v>3.213823854192588e-07</v>
+        <v>4.391641399930373e-10</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>2.70536915746933e-06</v>
+        <v>0.0005683609432498278</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.005132884100041244</v>
+        <v>0.00138618788477881</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.280203985390687e-07</v>
+        <v>4.921349148418364e-05</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.492374693559617e-06</v>
+        <v>5.543738544224532e-05</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0002656246952677691</v>
+        <v>0.007933269806678946</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.624713890434045e-09</v>
+        <v>3.968668844463045e-12</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.637735413518698e-11</v>
+        <v>7.944978630543238e-14</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.2201968686448e-14</v>
+        <v>2.22036315869484e-14</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.9941350189981873</v>
+        <v>0.9806505185041874</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Bacillales</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Bacillales</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG262.fasta</t>
+          <t>RUG357.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0005376453428106876</v>
+        <v>2.760681535536058e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>3.974069541562936e-11</v>
+        <v>3.455144219109829e-11</v>
       </c>
       <c r="D24" t="n">
-        <v>3.016286652229695e-12</v>
+        <v>7.798260465257876e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>1.821455799076876e-05</v>
+        <v>1.33252988124226e-08</v>
       </c>
       <c r="G24" t="n">
-        <v>2.903713882964657e-07</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>1.29949111282886e-06</v>
+        <v>4.428575406733075e-10</v>
       </c>
       <c r="I24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>4.467812191562138e-10</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>4.671018310871961e-11</v>
+        <v>2.804973523776779e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="O24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9947037061953079</v>
+        <v>7.200590483483225e-06</v>
       </c>
       <c r="R24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="S24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="T24" t="n">
-        <v>3.782126895604109e-07</v>
+        <v>9.870044460498673e-13</v>
       </c>
       <c r="U24" t="n">
-        <v>6.212802527893701e-13</v>
+        <v>2.970483731096574e-09</v>
       </c>
       <c r="V24" t="n">
-        <v>3.32667198451866e-07</v>
+        <v>6.171686588890973e-09</v>
       </c>
       <c r="W24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="X24" t="n">
-        <v>2.076581635684565e-06</v>
+        <v>2.288403752740689e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.004410051144475118</v>
+        <v>0.0003180803185897456</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.112652886956648e-07</v>
+        <v>0.0005880796603203955</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.251003393387558e-06</v>
+        <v>0.9955760795143962</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0003229408962021812</v>
+        <v>6.426399383081336e-06</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.642818582879471e-09</v>
+        <v>0.003452837086681777</v>
       </c>
       <c r="AE24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.050720588739965e-11</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.220195334897993e-14</v>
+        <v>2.220185960123951e-14</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.9947037061953079</v>
+        <v>0.9955760795143962</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG266.fasta</t>
+          <t>RUG374.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.879228374623599e-08</v>
+        <v>0.01960022861567515</v>
       </c>
       <c r="C25" t="n">
-        <v>3.229327513634974e-09</v>
+        <v>5.897992646743549e-11</v>
       </c>
       <c r="D25" t="n">
-        <v>5.743211060537907e-12</v>
+        <v>2.528526827703265e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>1.249109016779462e-11</v>
+        <v>6.565647940998752e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0002641279415297867</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>9.718532911692359e-13</v>
+        <v>2.82458998029591e-08</v>
       </c>
       <c r="H25" t="n">
-        <v>3.584232933782758e-07</v>
+        <v>2.800101102069253e-07</v>
       </c>
       <c r="I25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>3.742292011598644e-13</v>
+        <v>5.638106365449484e-11</v>
       </c>
       <c r="L25" t="n">
-        <v>3.174608635801618e-06</v>
+        <v>2.364508803491633e-07</v>
       </c>
       <c r="M25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="O25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="P25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.005016582552716194</v>
+        <v>0.9789426729787354</v>
       </c>
       <c r="R25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="S25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="T25" t="n">
-        <v>3.202374702838237e-11</v>
+        <v>4.879633443012113e-06</v>
       </c>
       <c r="U25" t="n">
-        <v>7.593387597283133e-10</v>
+        <v>1.143974560217969e-07</v>
       </c>
       <c r="V25" t="n">
-        <v>4.148898819875354e-13</v>
+        <v>1.241878517605251e-05</v>
       </c>
       <c r="W25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0006921940946614151</v>
+        <v>0.0001762873389452852</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.123501903389718e-05</v>
+        <v>0.001232957223966609</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.781089099155036e-09</v>
+        <v>2.485170377733593e-07</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.295276965638412e-12</v>
+        <v>5.907050440768864e-06</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.9939422299498142</v>
+        <v>2.36908400971303e-05</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.926512646922152e-10</v>
+        <v>6.23391118711845e-10</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>4.608306888573382e-14</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.388712481130906e-08</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.220205632392814e-14</v>
+        <v>2.22021950471618e-14</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.9939422299498142</v>
+        <v>0.9789426729787354</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG275.fasta</t>
+          <t>RUG503.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.019170078863807e-07</v>
+        <v>2.217072329424603e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>0.0125115624471362</v>
       </c>
       <c r="D26" t="n">
-        <v>3.052420189700384e-11</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>8.404486112678092e-06</v>
+        <v>3.336199853374537e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>5.247070280219773e-10</v>
       </c>
       <c r="G26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.735463250539153e-11</v>
       </c>
       <c r="H26" t="n">
-        <v>1.20253301722992e-10</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="L26" t="n">
-        <v>1.895787148719752e-11</v>
+        <v>0.00351841761164017</v>
       </c>
       <c r="M26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="O26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.758514435671964e-08</v>
+        <v>0.9839475926364092</v>
       </c>
       <c r="R26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="S26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>7.692203426843991e-13</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0007665688647515861</v>
+        <v>4.451521759067307e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>4.200840560647517e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>2.236039654348537e-05</v>
+        <v>9.045966208695489e-08</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.269172770098629e-10</v>
+        <v>1.647354550362127e-07</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.160164006950351e-09</v>
+        <v>2.950954188632365e-13</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.9992020081227331</v>
+        <v>1.281619222383005e-10</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.096955569330917e-08</v>
+        <v>7.050426346311857e-10</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.43543984853193e-13</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.220392613334493e-14</v>
+        <v>2.220288954526715e-14</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.9992020081227331</v>
+        <v>0.9839475926364092</v>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG286.fasta</t>
+          <t>RUG513.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.000736238164309922</v>
+        <v>5.358419223648014e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>3.008268493604173e-11</v>
+        <v>6.541092350563034e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>2.934315505974845e-12</v>
+        <v>2.742738344544784e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>7.604657083989461e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>4.053329321673336e-05</v>
+        <v>9.613349379041459e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>3.902108728212162e-07</v>
+        <v>1.668657392367719e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>1.027561577961403e-06</v>
+        <v>1.434597957337284e-13</v>
       </c>
       <c r="I27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="K27" t="n">
-        <v>1.465373838948702e-09</v>
+        <v>8.003181817410573e-12</v>
       </c>
       <c r="L27" t="n">
-        <v>2.348907255395646e-11</v>
+        <v>1.091343165413132e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="N27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="O27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="P27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9948847398650862</v>
+        <v>0.0001742884019281254</v>
       </c>
       <c r="R27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="S27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="T27" t="n">
-        <v>3.048488624061658e-07</v>
+        <v>1.154780811915812e-05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.494311195049916e-12</v>
+        <v>1.568565725187056e-07</v>
       </c>
       <c r="V27" t="n">
-        <v>2.16001072911612e-07</v>
+        <v>0.99902230022029</v>
       </c>
       <c r="W27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="X27" t="n">
-        <v>1.190987617089259e-06</v>
+        <v>0.000386044906158373</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.003670607724726691</v>
+        <v>0.0003553286661235204</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.346835894554795e-06</v>
+        <v>3.616666977657196e-09</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.489250160751266e-06</v>
+        <v>9.756920560338718e-06</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0006589122889769908</v>
+        <v>2.154517944834642e-05</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="AD27" t="n">
-        <v>9.158935082099637e-10</v>
+        <v>1.523015956296857e-06</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="AF27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.280463235516223e-10</v>
+        <v>1.482187911730054e-12</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.220201781776417e-14</v>
+        <v>2.220380454707925e-14</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.9948847398650862</v>
+        <v>0.99902230022029</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG287.fasta</t>
+          <t>RUG530.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.179474207750666e-05</v>
+        <v>8.201653610850932e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>2.15646833104784e-11</v>
+        <v>3.703268056665294e-08</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="F28" t="n">
-        <v>1.027015993784598e-07</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>3.54408649249093e-10</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>1.065760634974606e-07</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="J28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="K28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="L28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="M28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="N28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="O28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9824007891496603</v>
+        <v>0.0001906125542088701</v>
       </c>
       <c r="R28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="S28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="T28" t="n">
-        <v>6.351711951952942e-09</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="U28" t="n">
-        <v>1.208589182810916e-11</v>
+        <v>4.88709420143567e-11</v>
       </c>
       <c r="V28" t="n">
-        <v>6.272555037593819e-09</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="W28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="X28" t="n">
-        <v>1.391249060571435e-07</v>
+        <v>5.442211031567572e-07</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.003955772519467947</v>
+        <v>0.0001547494785064993</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.190688644071624e-09</v>
+        <v>1.045949629916894e-08</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.690132032618072e-06</v>
+        <v>0.9985915649377308</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01362557935204575</v>
+        <v>0.001062399250333851</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AD28" t="n">
-        <v>9.330801672198441e-12</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AE28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AG28" t="n">
-        <v>4.489423872204266e-09</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AH28" t="n">
-        <v>2.220297567210075e-14</v>
+        <v>2.220351677760654e-14</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.9824007891496603</v>
+        <v>0.9985915649377308</v>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG298.fasta</t>
+          <t>RUG591.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03030294386190839</v>
+        <v>0.0003388487516632612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03030294386189639</v>
+        <v>3.871648606708336e-11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03030294386189639</v>
+        <v>1.636888767768764e-11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03030294386191366</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03030294402923054</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03030574727369893</v>
+        <v>2.681755521778466e-05</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0303029438618964</v>
+        <v>8.853248446958673e-08</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03030294386189639</v>
+        <v>0.0003429077735864323</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03030299284014317</v>
+        <v>0.0004840499231922465</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03030294386189639</v>
+        <v>0.9977894268925581</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.03030294386190327</v>
+        <v>0.001017860515679374</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.03030294386189639</v>
+        <v>2.220298287209143e-14</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.03030574727369893</v>
+        <v>0.9977894268925581</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG306.fasta</t>
+          <t>RUG594.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01126721752531965</v>
+        <v>2.188944891098081e-08</v>
       </c>
       <c r="C30" t="n">
-        <v>5.698223832889277e-07</v>
+        <v>1.683625884562261e-10</v>
       </c>
       <c r="D30" t="n">
-        <v>8.655729528682614e-06</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>1.094725764762432e-07</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1801442382314568</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>2.280944107619779e-06</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1619471961046377</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>1.86614718387432e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="J30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="K30" t="n">
-        <v>1.045404757157693e-05</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="L30" t="n">
-        <v>3.008401084301379e-05</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="M30" t="n">
-        <v>1.866147183874314e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="N30" t="n">
-        <v>1.866147183874313e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="O30" t="n">
-        <v>1.866147183874313e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="P30" t="n">
-        <v>1.866147183874314e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2119419091494267</v>
+        <v>0.001423704569642138</v>
       </c>
       <c r="R30" t="n">
-        <v>1.866147183874314e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="S30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="T30" t="n">
-        <v>0.000183759961384881</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="U30" t="n">
-        <v>1.86614718387432e-11</v>
+        <v>5.91665942858219e-10</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1716873892342607</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="W30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="X30" t="n">
-        <v>6.074097644445564e-06</v>
+        <v>2.449571285774584e-07</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1419228948879798</v>
+        <v>0.0001428009892072287</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.197685240363578e-05</v>
+        <v>1.045819342955054e-08</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.003855750660391444</v>
+        <v>0.9983572736900859</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.04815956763681836</v>
+        <v>7.594268573226927e-05</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.866147183874318e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.06881987135134288</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.866147183874318e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.866147183874319e-11</v>
+        <v>2.220336056569062e-14</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.2119419091494267</v>
+        <v>0.9983572736900859</v>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG319.fasta</t>
+          <t>RUG610.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.171832497158836e-05</v>
+        <v>0.001514843066086302</v>
       </c>
       <c r="C31" t="n">
-        <v>1.214732587282455e-08</v>
+        <v>7.872638970874697e-10</v>
       </c>
       <c r="D31" t="n">
-        <v>3.205144844711991e-12</v>
+        <v>2.450080678674777e-11</v>
       </c>
       <c r="E31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>1.010112916542244e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>1.973043726465572e-08</v>
+        <v>4.908659671435377e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>7.605636233223664e-07</v>
+        <v>7.927060500687659e-08</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002671982129863493</v>
+        <v>7.844225764858321e-08</v>
       </c>
       <c r="I31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="J31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001939410159014937</v>
+        <v>1.597261870946353e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>3.813618208019254e-08</v>
+        <v>2.912134979472817e-06</v>
       </c>
       <c r="M31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="N31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="O31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="P31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9551173426864566</v>
+        <v>0.0003068623576605521</v>
       </c>
       <c r="R31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="S31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="T31" t="n">
-        <v>1.52649586908286e-06</v>
+        <v>2.101279625006879e-07</v>
       </c>
       <c r="U31" t="n">
-        <v>5.342815702345309e-12</v>
+        <v>0.002590075851421827</v>
       </c>
       <c r="V31" t="n">
-        <v>1.107928039716381e-06</v>
+        <v>1.513799702984944e-05</v>
       </c>
       <c r="W31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="X31" t="n">
-        <v>1.335381958753943e-05</v>
+        <v>0.000405945978838807</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0004088512633432305</v>
+        <v>0.004682332919558638</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.742837411474858e-06</v>
+        <v>8.536982925322812e-10</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.910042615301836e-05</v>
+        <v>2.568638643808335e-05</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02296389177010865</v>
+        <v>0.9904542316108966</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.01851461071479107</v>
+        <v>9.461436454972594e-12</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="AF31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.075849836411198e-12</v>
+        <v>4.1982276256062e-13</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.220369256155369e-14</v>
+        <v>2.220305507099633e-14</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.9551173426864566</v>
+        <v>0.9904542316108966</v>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG346.fasta</t>
+          <t>RUG655.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.130268451420191e-08</v>
+        <v>7.177086939700595e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>5.342700122047767e-07</v>
+        <v>1.196726623681664e-08</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9806505185041874</v>
+        <v>3.158772644087208e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>3.667478780945758e-10</v>
+        <v>3.158772644087208e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005190970656970618</v>
+        <v>3.158772644087213e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022425189622129e-07</v>
+        <v>3.15877264408721e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>1.289792691764864e-05</v>
+        <v>9.477079265853733e-10</v>
       </c>
       <c r="I32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087214e-14</v>
       </c>
       <c r="J32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087214e-14</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001229916812363649</v>
+        <v>1.310647901617281e-10</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001946457161164264</v>
+        <v>3.626917194120744e-10</v>
       </c>
       <c r="M32" t="n">
-        <v>5.051306493196074e-10</v>
+        <v>3.158772644087216e-14</v>
       </c>
       <c r="N32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087212e-14</v>
       </c>
       <c r="O32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087212e-14</v>
       </c>
       <c r="P32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>0.0152603835824124</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.000973295912674856</v>
+        <v>0.9609949897185877</v>
       </c>
       <c r="R32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087212e-14</v>
       </c>
       <c r="S32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087198e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>4.086313718250393e-09</v>
+        <v>1.983129786829227e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>2.770297201006969e-06</v>
+        <v>0.008117988442668549</v>
       </c>
       <c r="V32" t="n">
-        <v>4.391641399930373e-10</v>
+        <v>3.158772644087198e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.158772644087201e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0005683609432498278</v>
+        <v>2.12485913495017e-10</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.00138618788477881</v>
+        <v>2.922052320656339e-09</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.921349148418364e-05</v>
+        <v>0.0151904314819023</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.543738544224532e-05</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.007933269806678946</v>
+        <v>0.0004354708531103281</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.968668844463045e-12</v>
+        <v>1.668556818088217e-09</v>
       </c>
       <c r="AE32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AG32" t="n">
-        <v>7.944978630543238e-14</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.22036315869484e-14</v>
+        <v>3.15877264408709e-14</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.9806505185041874</v>
+        <v>0.9609949897185877</v>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG357.fasta</t>
+          <t>RUG664.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.760681535536058e-05</v>
+        <v>6.86831008133881e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>3.455144219109829e-11</v>
+        <v>6.287119682328997e-09</v>
       </c>
       <c r="D33" t="n">
-        <v>7.798260465257876e-07</v>
+        <v>1.291754526214423e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>3.975883139592118e-11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.33252988124226e-08</v>
+        <v>1.319518872722167e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>1.34593428179992e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>4.428575406733075e-10</v>
+        <v>1.496571977444498e-13</v>
       </c>
       <c r="I33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="J33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="K33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>7.390746687593392e-12</v>
       </c>
       <c r="L33" t="n">
-        <v>2.804973523776779e-09</v>
+        <v>8.025056394170504e-10</v>
       </c>
       <c r="M33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="N33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="O33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="P33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.200590483483225e-06</v>
+        <v>0.0001409312816197936</v>
       </c>
       <c r="R33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="S33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="T33" t="n">
-        <v>9.870044460498673e-13</v>
+        <v>1.632234224109161e-05</v>
       </c>
       <c r="U33" t="n">
-        <v>2.970483731096574e-09</v>
+        <v>2.128401378494707e-07</v>
       </c>
       <c r="V33" t="n">
-        <v>6.171686588890973e-09</v>
+        <v>0.9989758523241897</v>
       </c>
       <c r="W33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="X33" t="n">
-        <v>2.288403752740689e-05</v>
+        <v>0.0003970334783241343</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0003180803185897456</v>
+        <v>0.0004210379074357311</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0005880796603203955</v>
+        <v>2.835482293478137e-09</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.9955760795143962</v>
+        <v>1.071188176768309e-05</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.426399383081336e-06</v>
+        <v>2.255110091170507e-05</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.003452837086681777</v>
+        <v>1.061519731333864e-06</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="AF33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>1.534782754165772e-12</v>
       </c>
       <c r="AH33" t="n">
-        <v>2.220185960123951e-14</v>
+        <v>2.22037734801221e-14</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.9955760795143962</v>
+        <v>0.9989758523241897</v>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>o__RF39</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>o__RF39</t>
+          <t>o__Lactobacillales</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG374.fasta</t>
+          <t>RUG696.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01960022861567515</v>
+        <v>6.786561083033664e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>5.897992646743549e-11</v>
+        <v>1.665727396060718e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>2.528526827703265e-08</v>
+        <v>1.623241680717747e-12</v>
       </c>
       <c r="E34" t="n">
-        <v>6.565647940998752e-13</v>
+        <v>3.240007039766474e-10</v>
       </c>
       <c r="F34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>3.770128894509883e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>2.82458998029591e-08</v>
+        <v>1.793699507003619e-09</v>
       </c>
       <c r="H34" t="n">
-        <v>2.800101102069253e-07</v>
+        <v>4.600580161138501e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="J34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="K34" t="n">
-        <v>5.638106365449484e-11</v>
+        <v>9.019814019351379e-12</v>
       </c>
       <c r="L34" t="n">
-        <v>2.364508803491633e-07</v>
+        <v>2.257695764859727e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.921952429672202e-12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="O34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9789426729787354</v>
+        <v>0.0004954507835610173</v>
       </c>
       <c r="R34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="S34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="T34" t="n">
-        <v>4.879633443012113e-06</v>
+        <v>9.580545831879958e-10</v>
       </c>
       <c r="U34" t="n">
-        <v>1.143974560217969e-07</v>
+        <v>0.001451433802251235</v>
       </c>
       <c r="V34" t="n">
-        <v>1.241878517605251e-05</v>
+        <v>3.203362398170856e-07</v>
       </c>
       <c r="W34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0001762873389452852</v>
+        <v>3.436158603773648e-05</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.001232957223966609</v>
+        <v>0.0009121835640726697</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.485170377733593e-07</v>
+        <v>2.12478227086719e-11</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.907050440768864e-06</v>
+        <v>1.188906783161554e-07</v>
       </c>
       <c r="AB34" t="n">
-        <v>2.36908400971303e-05</v>
+        <v>0.9970303636298289</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.23391118711845e-10</v>
+        <v>1.305967541038584e-09</v>
       </c>
       <c r="AE34" t="n">
-        <v>4.608306888573382e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.388712481130906e-08</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.22021950471618e-14</v>
+        <v>2.220247999377281e-14</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.9789426729787354</v>
+        <v>0.9970303636298289</v>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG416.fasta</t>
+          <t>RUG698.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.329069017051536e-12</v>
+        <v>6.740218918821655e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>2.206193523190125e-12</v>
+        <v>1.262153443826204e-08</v>
       </c>
       <c r="D35" t="n">
-        <v>4.050328226796408e-14</v>
+        <v>4.5089606804658e-10</v>
       </c>
       <c r="E35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>1.961997215055711e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>1.471393998030843e-07</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01100232317579229</v>
+        <v>1.374306841350239e-09</v>
       </c>
       <c r="H35" t="n">
-        <v>4.050328226796413e-14</v>
+        <v>2.177553978391014e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>4.050328226796413e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="J35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="K35" t="n">
-        <v>5.455504546918382e-10</v>
+        <v>0.0001573650737263325</v>
       </c>
       <c r="L35" t="n">
-        <v>8.379029232089202e-07</v>
+        <v>7.482183622355743e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="N35" t="n">
-        <v>4.05032822679641e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="O35" t="n">
-        <v>4.05032822679641e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="P35" t="n">
-        <v>4.05032822679641e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5303580295992883</v>
+        <v>0.004844223532449541</v>
       </c>
       <c r="R35" t="n">
-        <v>4.05032822679641e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="S35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>5.130596562748401e-09</v>
       </c>
       <c r="U35" t="n">
-        <v>4.050328226796429e-14</v>
+        <v>9.521200074687241e-05</v>
       </c>
       <c r="V35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.83819920393349e-05</v>
       </c>
       <c r="W35" t="n">
-        <v>4.05032822679641e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>2.838399143228968e-07</v>
+        <v>0.003814948192635564</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.050328226796805e-14</v>
+        <v>0.001650407150011995</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.4586384719589883</v>
+        <v>7.909504950407751e-08</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.050328226796409e-14</v>
+        <v>1.170243684109919e-05</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.296803664310982e-08</v>
+        <v>0.9893218001837301</v>
       </c>
       <c r="AC35" t="n">
-        <v>4.050328226796409e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>1.024998941557662e-11</v>
       </c>
       <c r="AE35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="AF35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.050328226796412e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="AH35" t="n">
-        <v>4.050328226796409e-14</v>
+        <v>2.220319290545383e-14</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.5303580295992883</v>
+        <v>0.9893218001837301</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RFN20</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__RFN20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG448.fasta</t>
+          <t>RUG705.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.006767467909725785</v>
+        <v>0.0001847945019494916</v>
       </c>
       <c r="C36" t="n">
-        <v>4.43545240744718e-10</v>
+        <v>5.052827026401279e-09</v>
       </c>
       <c r="D36" t="n">
-        <v>1.005494858192585e-11</v>
+        <v>3.02358917023667e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>5.412677373278666e-12</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>2.064955180514544e-09</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>1.092240287459594e-13</v>
+        <v>2.226804649046159e-13</v>
       </c>
       <c r="I36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="K36" t="n">
-        <v>7.120378165781891e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="L36" t="n">
-        <v>2.526106131437981e-13</v>
+        <v>9.94276645243328e-14</v>
       </c>
       <c r="M36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="O36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.004408569845534039</v>
+        <v>0.0001862153639699942</v>
       </c>
       <c r="R36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="S36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="T36" t="n">
-        <v>4.532566972423521e-08</v>
+        <v>5.014998024199334e-07</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9550778898131125</v>
+        <v>0.002158019292468326</v>
       </c>
       <c r="V36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>7.782364289887496e-14</v>
       </c>
       <c r="W36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="X36" t="n">
-        <v>4.956420964532373e-05</v>
+        <v>0.01157097815823886</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.002497757992555323</v>
+        <v>0.001470338997470264</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.071916309368733e-06</v>
+        <v>1.31236566150248e-07</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0002480553303785183</v>
+        <v>0.9843991788975938</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03094857505953217</v>
+        <v>2.980594949760942e-05</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.803497712096459e-11</v>
+        <v>3.764084933106141e-14</v>
       </c>
       <c r="AE36" t="n">
-        <v>4.097921310070705e-12</v>
+        <v>8.129091274325277e-10</v>
       </c>
       <c r="AF36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="AG36" t="n">
-        <v>6.923760342606334e-13</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.220442027788394e-14</v>
+        <v>2.220295461689558e-14</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.9550778898131125</v>
+        <v>0.9843991788975938</v>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>o__Izemoplasmatales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>o__Izemoplasmatales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG503.fasta</t>
+          <t>RUG727.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.217072329424603e-05</v>
+        <v>4.07225073412316e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0125115624471362</v>
+        <v>2.486560800482342e-10</v>
       </c>
       <c r="D37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>6.799091525059812e-09</v>
       </c>
       <c r="E37" t="n">
-        <v>3.336199853374537e-13</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>5.247070280219773e-10</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>2.735463250539153e-11</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="J37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="K37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00351841761164017</v>
+        <v>1.177148880915533e-12</v>
       </c>
       <c r="M37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="N37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="O37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="P37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.9839475926364092</v>
+        <v>2.394639755455128e-06</v>
       </c>
       <c r="R37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="S37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="T37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>8.69986338588207e-09</v>
       </c>
       <c r="U37" t="n">
-        <v>4.451521759067307e-14</v>
+        <v>0.0003698646106360911</v>
       </c>
       <c r="V37" t="n">
-        <v>4.200840560647517e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="X37" t="n">
-        <v>9.045966208695489e-08</v>
+        <v>0.0001129362405215704</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.647354550362127e-07</v>
+        <v>0.001632327322453854</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.950954188632365e-13</v>
+        <v>2.016714294535776e-08</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>0.9955158145929238</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.281619222383005e-10</v>
+        <v>0.002365163468426761</v>
       </c>
       <c r="AC37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.050426346311857e-10</v>
+        <v>5.182446357168043e-07</v>
       </c>
       <c r="AE37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>9.042417864651951e-07</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="AH37" t="n">
-        <v>2.220288954526715e-14</v>
+        <v>2.220193276285323e-14</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.9839475926364092</v>
+        <v>0.9955158145929238</v>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG513.fasta</t>
+          <t>RUG793.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.358419223648014e-07</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>6.541092350563034e-09</v>
+        <v>1.226416951975446e-11</v>
       </c>
       <c r="D38" t="n">
-        <v>2.742738344544784e-07</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>7.604657083989461e-11</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>9.613349379041459e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>1.668657392367719e-05</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>1.434597957337284e-13</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="J38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="K38" t="n">
-        <v>8.003181817410573e-12</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="L38" t="n">
-        <v>1.091343165413132e-09</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="M38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>8.234684268711355e-12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="O38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="P38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0001742884019281254</v>
+        <v>2.210546001879699e-09</v>
       </c>
       <c r="R38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="S38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>1.154780811915812e-05</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>1.568565725187056e-07</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0.99902230022029</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0.000386044906158373</v>
+        <v>3.419829541828752e-10</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0003553286661235204</v>
+        <v>1.755034900939743e-08</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.616666977657196e-09</v>
+        <v>2.590753307607976e-10</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.756920560338718e-06</v>
+        <v>0.9999999717873882</v>
       </c>
       <c r="AB38" t="n">
-        <v>2.154517944834642e-05</v>
+        <v>7.82960440431261e-09</v>
       </c>
       <c r="AC38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.523015956296857e-06</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AE38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AF38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.482187911730054e-12</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.220380454707925e-14</v>
+        <v>2.220446047352154e-14</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.99902230022029</v>
+        <v>0.9999999717873882</v>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG530.fasta</t>
+          <t>RUG820.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.201653610850932e-08</v>
+        <v>0.0001655231001691967</v>
       </c>
       <c r="C39" t="n">
-        <v>3.703268056665294e-08</v>
+        <v>2.508105386619705e-11</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.561134676281699e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>1.796373848750552e-12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>1.132320052443228e-13</v>
       </c>
       <c r="I39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="J39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="K39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="L39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="M39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="N39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="O39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="P39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0001906125542088701</v>
+        <v>0.008601023381402872</v>
       </c>
       <c r="R39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="S39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="T39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.82567752871037e-09</v>
       </c>
       <c r="U39" t="n">
-        <v>4.88709420143567e-11</v>
+        <v>0.0001300062724571508</v>
       </c>
       <c r="V39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="W39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="X39" t="n">
-        <v>5.442211031567572e-07</v>
+        <v>4.862266731936329e-06</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0001547494785064993</v>
+        <v>0.0002285004045194857</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.045949629916894e-08</v>
+        <v>9.398035001583473e-06</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.9985915649377308</v>
+        <v>0.990847380991412</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.001062399250333851</v>
+        <v>1.074009205968363e-05</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>1.301857584012432e-09</v>
       </c>
       <c r="AE39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>1.666446405008121e-10</v>
       </c>
       <c r="AF39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.220351677760654e-14</v>
+        <v>2.220202174701823e-14</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.9985915649377308</v>
+        <v>0.990847380991412</v>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
@@ -5146,348 +5146,348 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG551.fasta</t>
+          <t>RUG832.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.571744912161708e-10</v>
+        <v>1.245417527262301e-09</v>
       </c>
       <c r="C40" t="n">
-        <v>9.214241020728637e-11</v>
+        <v>1.105702418662746e-10</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="F40" t="n">
-        <v>5.758437924440606e-11</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>3.359670034251449e-11</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="J40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="K40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="L40" t="n">
-        <v>1.774235279048873e-10</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="M40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="N40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="O40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.00831399750827698</v>
+        <v>0.00859388018592044</v>
       </c>
       <c r="R40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="S40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="T40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002927422966377394</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="V40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="W40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="X40" t="n">
-        <v>6.592482394112284e-05</v>
+        <v>2.349978758103489e-07</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.352907415217344e-09</v>
+        <v>4.729423290253047e-06</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.77570233707222e-09</v>
+        <v>1.248042359096542e-06</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>0.9913999059909575</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.9913273289196939</v>
+        <v>3.054106376910932e-12</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AD40" t="n">
-        <v>4.452728585600228e-12</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.220194696163844e-14</v>
+        <v>2.220181915188054e-14</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.9913273289196939</v>
+        <v>0.9913999059909575</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>RUG574.fasta</t>
+          <t>RUG840.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.522226455012921e-07</v>
+        <v>1.383733852797084e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>2.462269324612557e-07</v>
+        <v>9.784647807122311e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>9.309231522697497e-11</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>1.2720715540835e-13</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>5.454079330828563e-06</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>6.890403435378328e-11</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>3.399111050928036e-06</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="J41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="K41" t="n">
-        <v>0.009843594092468754</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1381102448329772</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="M41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="O41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="P41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6341692601429144</v>
+        <v>0.001454741765824329</v>
       </c>
       <c r="R41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="S41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>4.910975548848938e-10</v>
+        <v>1.766687490663978e-11</v>
       </c>
       <c r="U41" t="n">
-        <v>4.569595417404969e-13</v>
+        <v>3.400119950680573e-09</v>
       </c>
       <c r="V41" t="n">
-        <v>0.1575550480542473</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0007853353268977189</v>
+        <v>0.000187401702679375</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0006159174149741619</v>
+        <v>4.987559315404889e-05</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.066662585717502e-07</v>
+        <v>3.317942966681271e-11</v>
       </c>
       <c r="AA41" t="n">
-        <v>8.821975512340519e-09</v>
+        <v>0.9983077392772026</v>
       </c>
       <c r="AB41" t="n">
-        <v>3.066890158174276e-09</v>
+        <v>1.951382567063098e-09</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.05891092928644626</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="AE41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>3.843907929563992e-11</v>
       </c>
       <c r="AF41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.23014640991189e-14</v>
+        <v>2.220332949295755e-14</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.6341692601429144</v>
+        <v>0.9983077392772026</v>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales</t>
+          <t>o__RF39</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>o__Erysipelotrichales(reject)</t>
+          <t>o__RF39</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RUG584.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.652229330335349e-08</v>
+        <v>4.958279096165812e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>6.086425915608922e-06</v>
+        <v>0.001740205270239013</v>
       </c>
       <c r="D42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005840839328294337</v>
+        <v>3.128704974435191e-12</v>
       </c>
       <c r="F42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>9.513370947652774e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>7.108731338136802e-12</v>
+        <v>1.783154625091435e-09</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>5.340285852946612e-12</v>
       </c>
       <c r="I42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="J42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="K42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0001346794065059993</v>
+        <v>0.008528683400686538</v>
       </c>
       <c r="M42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="N42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="O42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="P42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9884894569211029</v>
+        <v>0.989660211508089</v>
       </c>
       <c r="R42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="S42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="T42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0002302546189512379</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="V42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.02077646477063e-08</v>
       </c>
       <c r="W42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="X42" t="n">
-        <v>4.161460193620061e-05</v>
+        <v>3.205334432565337e-06</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.303696192367325e-08</v>
+        <v>4.549996621002829e-06</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0001314766353816201</v>
+        <v>2.568379819596641e-11</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>5.485300153582323e-14</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.111205360881355e-10</v>
+        <v>1.746318698552245e-09</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.005125561583961357</v>
+        <v>5.721110189612571e-05</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="AF42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.22031260234917e-14</v>
+        <v>2.220242787185464e-14</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.9884894569211029</v>
+        <v>0.989660211508089</v>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
@@ -5503,110 +5503,110 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RUG591.fasta</t>
+          <t>hRUG889.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0003388487516632612</v>
+        <v>3.12487478240501e-08</v>
       </c>
       <c r="C43" t="n">
-        <v>3.871648606708336e-11</v>
+        <v>1.304774563464146e-08</v>
       </c>
       <c r="D43" t="n">
-        <v>1.636888767768764e-11</v>
+        <v>1.020548438243322e-08</v>
       </c>
       <c r="E43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="F43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>9.652545582976161e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="J43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="K43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="L43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="M43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="N43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="O43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="P43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.681755521778466e-05</v>
+        <v>0.0003951999755122162</v>
       </c>
       <c r="R43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="S43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="T43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>1.527766045287368e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>1.904406284579883e-08</v>
       </c>
       <c r="V43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="W43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="X43" t="n">
-        <v>8.853248446958673e-08</v>
+        <v>5.517417879539369e-06</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0003429077735864323</v>
+        <v>0.0006830681965722462</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0004840499231922465</v>
+        <v>3.088071142931045e-06</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.9977894268925581</v>
+        <v>0.9989110917924312</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.001017860515679374</v>
+        <v>1.959778233997029e-06</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="AD43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>1.22062521741321e-09</v>
       </c>
       <c r="AE43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="AF43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.220298287209143e-14</v>
+        <v>2.220373020168428e-14</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.9977894268925581</v>
+        <v>0.9989110917924312</v>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
@@ -5622,2735 +5622,236 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RUG594.fasta</t>
+          <t>hRUG902.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.188944891098081e-08</v>
+        <v>0.08151769455659208</v>
       </c>
       <c r="C44" t="n">
-        <v>1.683625884562261e-10</v>
+        <v>1.774719473247856e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>3.332612684406939e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>1.110084933620769e-11</v>
       </c>
       <c r="H44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>4.099679603219512e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="J44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="K44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="L44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>4.620514804713919e-08</v>
       </c>
       <c r="M44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="N44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="O44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="P44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.001423704569642138</v>
+        <v>0.9184646878466421</v>
       </c>
       <c r="R44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="S44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>5.91665942858219e-10</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>5.521444349029775e-10</v>
       </c>
       <c r="W44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>2.449571285774584e-07</v>
+        <v>2.962078605883201e-08</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0001428009892072287</v>
+        <v>1.576531087112599e-05</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.045819342955054e-08</v>
+        <v>2.453769910112972e-11</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.9983572736900859</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.594268573226927e-05</v>
+        <v>4.470815270497776e-11</v>
       </c>
       <c r="AC44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>1.10747789684903e-09</v>
       </c>
       <c r="AE44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AF44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AH44" t="n">
-        <v>2.220336056569062e-14</v>
+        <v>2.220185762260022e-14</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.9983572736900859</v>
+        <v>0.9184646878466421</v>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>o__RF39</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>o__RF39</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RUG610.fasta</t>
+          <t>hRUG912.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001514843066086302</v>
+        <v>0.01394538577700213</v>
       </c>
       <c r="C45" t="n">
-        <v>7.872638970874697e-10</v>
+        <v>5.823572543729338e-11</v>
       </c>
       <c r="D45" t="n">
-        <v>2.450080678674777e-11</v>
+        <v>7.851281062859913e-08</v>
       </c>
       <c r="E45" t="n">
-        <v>1.010112916542244e-11</v>
+        <v>4.620408967105271e-12</v>
       </c>
       <c r="F45" t="n">
-        <v>4.908659671435377e-09</v>
+        <v>7.751547006232875e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>7.927060500687659e-08</v>
+        <v>7.010640520903812e-08</v>
       </c>
       <c r="H45" t="n">
-        <v>7.844225764858321e-08</v>
+        <v>3.076976259982942e-06</v>
       </c>
       <c r="I45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="J45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="K45" t="n">
-        <v>1.597261870946353e-06</v>
+        <v>1.368191991029687e-09</v>
       </c>
       <c r="L45" t="n">
-        <v>2.912134979472817e-06</v>
+        <v>4.286824213412988e-07</v>
       </c>
       <c r="M45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>6.989616564907862e-14</v>
       </c>
       <c r="N45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="O45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="P45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0003068623576605521</v>
+        <v>0.9849798989810427</v>
       </c>
       <c r="R45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="S45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="T45" t="n">
-        <v>2.101279625006879e-07</v>
+        <v>7.056221238882539e-06</v>
       </c>
       <c r="U45" t="n">
-        <v>0.002590075851421827</v>
+        <v>1.061885233074753e-06</v>
       </c>
       <c r="V45" t="n">
-        <v>1.513799702984944e-05</v>
+        <v>0.0001084639657609634</v>
       </c>
       <c r="W45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="X45" t="n">
-        <v>0.000405945978838807</v>
+        <v>7.697983057735835e-05</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.004682332919558638</v>
+        <v>0.0008022427840970333</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.536982925322812e-10</v>
+        <v>1.26453129565588e-06</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.568638643808335e-05</v>
+        <v>2.500686950818046e-05</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.9904542316108966</v>
+        <v>4.73046204570337e-05</v>
       </c>
       <c r="AC45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.461436454972594e-12</v>
+        <v>2.728275534534744e-09</v>
       </c>
       <c r="AE45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>9.89590254710342e-12</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="AG45" t="n">
-        <v>4.1982276256062e-13</v>
+        <v>1.676086278709437e-06</v>
       </c>
       <c r="AH45" t="n">
-        <v>2.220305507099633e-14</v>
+        <v>2.220196632377269e-14</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.9904542316108966</v>
+        <v>0.9849798989810427</v>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>o__RFN20</t>
+          <t>o__Erysipelotrichales</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>RUG655.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>7.177086939700595e-07</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.196726623681664e-08</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.158772644087208e-14</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3.158772644087208e-14</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.158772644087213e-14</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3.15877264408721e-14</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9.477079265853733e-10</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.158772644087214e-14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.158772644087214e-14</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.310647901617281e-10</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.626917194120744e-10</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.158772644087216e-14</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.158772644087212e-14</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3.158772644087212e-14</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.0152603835824124</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.9609949897185877</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3.158772644087212e-14</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.158772644087198e-14</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.983129786829227e-13</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0.008117988442668549</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3.158772644087198e-14</v>
-      </c>
-      <c r="W46" t="n">
-        <v>3.158772644087201e-14</v>
-      </c>
-      <c r="X46" t="n">
-        <v>2.12485913495017e-10</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>2.922052320656339e-09</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.0151904314819023</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.0004354708531103281</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1.668556818088217e-09</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>3.15877264408709e-14</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0.9609949897185877</v>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>RUG664.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>6.86831008133881e-07</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.287119682328997e-09</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.291754526214423e-07</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.975883139592118e-11</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.319518872722167e-13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.34593428179992e-05</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.496571977444498e-13</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.390746687593392e-12</v>
-      </c>
-      <c r="L47" t="n">
-        <v>8.025056394170504e-10</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.0001409312816197936</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.632234224109161e-05</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.128401378494707e-07</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.9989758523241897</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.0003970334783241343</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0.0004210379074357311</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>2.835482293478137e-09</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1.071188176768309e-05</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>2.255110091170507e-05</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1.061519731333864e-06</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.534782754165772e-12</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>2.22037734801221e-14</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0.9989758523241897</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>o__Lactobacillales</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>o__Lactobacillales</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>RUG696.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6.786561083033664e-06</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.665727396060718e-08</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.623241680717747e-12</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3.240007039766474e-10</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.770128894509883e-07</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.793699507003619e-09</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4.600580161138501e-05</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9.019814019351379e-12</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.257695764859727e-05</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.921952429672202e-12</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.0004954507835610173</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="T48" t="n">
-        <v>9.580545831879958e-10</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.001451433802251235</v>
-      </c>
-      <c r="V48" t="n">
-        <v>3.203362398170856e-07</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="X48" t="n">
-        <v>3.436158603773648e-05</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0.0009121835640726697</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>2.12478227086719e-11</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1.188906783161554e-07</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0.9970303636298289</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1.305967541038584e-09</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>2.220247999377281e-14</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0.9970303636298289</v>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>RUG698.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>6.740218918821655e-07</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.262153443826204e-08</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.5089606804658e-10</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1.961997215055711e-12</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1.471393998030843e-07</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.374306841350239e-09</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.177553978391014e-07</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.0001573650737263325</v>
-      </c>
-      <c r="L49" t="n">
-        <v>7.482183622355743e-05</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.004844223532449541</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="T49" t="n">
-        <v>5.130596562748401e-09</v>
-      </c>
-      <c r="U49" t="n">
-        <v>9.521200074687241e-05</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.83819920393349e-05</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.003814948192635564</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0.001650407150011995</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>7.909504950407751e-08</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.170243684109919e-05</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0.9893218001837301</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.024998941557662e-11</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>2.220319290545383e-14</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0.9893218001837301</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>RUG705.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0001847945019494916</v>
-      </c>
-      <c r="C50" t="n">
-        <v>5.052827026401279e-09</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.02358917023667e-08</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.226804649046159e-13</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9.94276645243328e-14</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.0001862153639699942</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="T50" t="n">
-        <v>5.014998024199334e-07</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.002158019292468326</v>
-      </c>
-      <c r="V50" t="n">
-        <v>7.782364289887496e-14</v>
-      </c>
-      <c r="W50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.01157097815823886</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.001470338997470264</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1.31236566150248e-07</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.9843991788975938</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>2.980594949760942e-05</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>3.764084933106141e-14</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>8.129091274325277e-10</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>2.220295461689558e-14</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0.9843991788975938</v>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>RUG727.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4.07225073412316e-08</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.486560800482342e-10</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.799091525059812e-09</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.177148880915533e-12</v>
-      </c>
-      <c r="M51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.394639755455128e-06</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="T51" t="n">
-        <v>8.69986338588207e-09</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.0003698646106360911</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="W51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0.0001129362405215704</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0.001632327322453854</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.016714294535776e-08</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0.9955158145929238</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0.002365163468426761</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>5.182446357168043e-07</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>9.042417864651951e-07</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>2.220193276285323e-14</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0.9955158145929238</v>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>RUG793.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.226416951975446e-11</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="M52" t="n">
-        <v>8.234684268711355e-12</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.210546001879699e-09</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="W52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="X52" t="n">
-        <v>3.419829541828752e-10</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.755034900939743e-08</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>2.590753307607976e-10</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0.9999999717873882</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>7.82960440431261e-09</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>2.220446047352154e-14</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0.9999999717873882</v>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>RUG809.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.1625603703991969</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.648051101599312e-10</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="G53" t="n">
-        <v>8.821619031968283e-12</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.489611964925685e-09</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.899297174836886e-10</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.835093161499405</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.252227411507353e-09</v>
-      </c>
-      <c r="U53" t="n">
-        <v>5.673486437097001e-12</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.276081477215881e-05</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.996049163808884e-09</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.002321953012465277</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>8.542904416799239e-09</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1.047088282582708e-08</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>2.167312834691823e-13</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>1.730052638706892e-06</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>2.219787610880496e-14</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0.835093161499405</v>
-      </c>
-      <c r="AJ53" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK53" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>RUG810.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.00944320099574314</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.565882378203742e-10</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2.1418437656488e-07</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5.934315202988571e-07</v>
-      </c>
-      <c r="H54" t="n">
-        <v>4.054713211498464e-07</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.162113457557693e-11</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.577670277593827e-09</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.004243802869044708</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="T54" t="n">
-        <v>4.674162489033734e-08</v>
-      </c>
-      <c r="U54" t="n">
-        <v>4.575109929095866e-09</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0.000945170524073766</v>
-      </c>
-      <c r="W54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="X54" t="n">
-        <v>8.517404163156018e-07</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0.002747666349796292</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>8.410108926815088e-12</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>4.495061794907159e-05</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0.9825730836085961</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>7.13578267294417e-09</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>2.22037354958367e-14</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0.9825730836085961</v>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>o__RFN20</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>RUG817.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.01975089526571033</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0001180156888377718</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.259054831446165e-09</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1.259054831446055e-09</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.719315695976606e-08</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.259054831446219e-09</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.003076469264410043</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.06432011324239893</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0001794244774327226</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.259054831446054e-09</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.2473195723373018</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.259054831446105e-09</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1.259054831446105e-09</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.259054831447661e-09</v>
-      </c>
-      <c r="U55" t="n">
-        <v>8.736406603111578e-08</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.259054831446105e-09</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.259054831446105e-09</v>
-      </c>
-      <c r="X55" t="n">
-        <v>4.004579104469801e-05</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0.0006871067106393178</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.5041681368830968</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1.259054831446108e-09</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0.1603400893417533</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.259054831446106e-09</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1.259054831446333e-09</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.259054831446106e-09</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.259054831446106e-09</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1.259054831446106e-09</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1.259054831446106e-09</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0.5041681368830968</v>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>o__Paenibacillales</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>o__Paenibacillales(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>RUG820.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.0001655231001691967</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.508105386619705e-11</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.561134676281699e-06</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.796373848750552e-12</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.132320052443228e-13</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.008601023381402872</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.82567752871037e-09</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.0001300062724571508</v>
-      </c>
-      <c r="V56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="X56" t="n">
-        <v>4.862266731936329e-06</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0.0002285004045194857</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>9.398035001583473e-06</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0.990847380991412</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.074009205968363e-05</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>1.301857584012432e-09</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.666446405008121e-10</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>2.220202174701823e-14</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0.990847380991412</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>RUG832.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1.245417527262301e-09</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.105702418662746e-10</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.00859388018592044</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="W57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.349978758103489e-07</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>4.729423290253047e-06</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.248042359096542e-06</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0.9913999059909575</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>3.054106376910932e-12</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>2.220181915188054e-14</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0.9913999059909575</v>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>RUG833.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.02266874098517859</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2.289826727967876e-10</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.1032473511365682</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.0008999408195107596</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.505231189684812e-08</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.004445992312062736</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1.276803515876594e-05</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.06313837466205e-13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.06313837466205e-13</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.058439595907827e-07</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.305205957163756e-10</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2.0631383746621e-13</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.063138374662051e-13</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2.063138374662051e-13</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.063138374662051e-13</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.6984241479061715</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.063138374662051e-13</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2.06313837466205e-13</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.002893332601476685</v>
-      </c>
-      <c r="U58" t="n">
-        <v>4.686097303260554e-06</v>
-      </c>
-      <c r="V58" t="n">
-        <v>9.198265411312958e-05</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2.063138374662047e-13</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.1628191685969005</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0.003505589484218972</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.0009013449862796298</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>4.060494992229448e-05</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>7.102691298362123e-07</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>2.06313837466207e-13</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>4.351779000251577e-05</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>2.06313837466207e-13</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>2.063138374662076e-13</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>1.754593090505304e-11</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>2.063138374662074e-13</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0.6984241479061715</v>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>RUG840.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1.383733852797084e-07</v>
-      </c>
-      <c r="C59" t="n">
-        <v>9.784647807122311e-08</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="O59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.001454741765824329</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="T59" t="n">
-        <v>1.766687490663978e-11</v>
-      </c>
-      <c r="U59" t="n">
-        <v>3.400119950680573e-09</v>
-      </c>
-      <c r="V59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="W59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.000187401702679375</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>4.987559315404889e-05</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>3.317942966681271e-11</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0.9983077392772026</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.951382567063098e-09</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>3.843907929563992e-11</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>2.220332949295755e-14</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0.9983077392772026</v>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>hRUG852.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2.367984677421464e-10</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.007892631822413409</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="E60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.212225863370552e-06</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.165379689354213e-07</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.180222831205649e-10</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.007524294223237848</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.9844630929152136</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="S60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="U60" t="n">
-        <v>4.824102013947294e-08</v>
-      </c>
-      <c r="V60" t="n">
-        <v>3.158639126998399e-10</v>
-      </c>
-      <c r="W60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="X60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>5.422287054028659e-09</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>8.848281254694588e-07</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1.821921270279247e-06</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.0001158908914711684</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>2.220335011312858e-14</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.9844630929152136</v>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>4.958279096165812e-06</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.001740205270239013</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3.128704974435191e-12</v>
-      </c>
-      <c r="F61" t="n">
-        <v>9.513370947652774e-07</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.783154625091435e-09</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5.340285852946612e-12</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.008528683400686538</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="O61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.989660211508089</v>
-      </c>
-      <c r="R61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="U61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2.02077646477063e-08</v>
-      </c>
-      <c r="W61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="X61" t="n">
-        <v>3.205334432565337e-06</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>4.549996621002829e-06</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2.568379819596641e-11</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>5.485300153582323e-14</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1.746318698552245e-09</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>5.721110189612571e-05</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>2.220242787185464e-14</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0.989660211508089</v>
-      </c>
-      <c r="AJ61" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>hRUG889.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3.12487478240501e-08</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.304774563464146e-08</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.020548438243322e-08</v>
-      </c>
-      <c r="E62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9.652545582976161e-13</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="O62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="P62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.0003951999755122162</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="S62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.527766045287368e-13</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.904406284579883e-08</v>
-      </c>
-      <c r="V62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="W62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="X62" t="n">
-        <v>5.517417879539369e-06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.0006830681965722462</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>3.088071142931045e-06</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.9989110917924312</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>1.959778233997029e-06</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>1.22062521741321e-09</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>2.220373020168428e-14</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0.9989110917924312</v>
-      </c>
-      <c r="AJ62" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-      <c r="AK62" t="inlineStr">
-        <is>
-          <t>o__RF39</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>hRUG895.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>6.110014221603636e-05</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.794883736813671e-09</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6.986733340462188e-09</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8.008046310747463e-09</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0001546418522629359</v>
-      </c>
-      <c r="G63" t="n">
-        <v>6.978998521434585e-08</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.002325001200392941</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7.598995017447293e-14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.598995017447294e-14</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.702235336123277e-08</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.468123006301458e-08</v>
-      </c>
-      <c r="M63" t="n">
-        <v>7.598995017447284e-14</v>
-      </c>
-      <c r="N63" t="n">
-        <v>7.598995017447279e-14</v>
-      </c>
-      <c r="O63" t="n">
-        <v>7.598995017447279e-14</v>
-      </c>
-      <c r="P63" t="n">
-        <v>7.598995017447285e-14</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.7302337519158505</v>
-      </c>
-      <c r="R63" t="n">
-        <v>7.598995017447359e-14</v>
-      </c>
-      <c r="S63" t="n">
-        <v>7.598995017447371e-14</v>
-      </c>
-      <c r="T63" t="n">
-        <v>7.726443885105154e-07</v>
-      </c>
-      <c r="U63" t="n">
-        <v>7.598995017447371e-14</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.252497076455471</v>
-      </c>
-      <c r="W63" t="n">
-        <v>7.598995017447373e-14</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1.537555030653709e-06</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.002585258885756975</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>3.491601232562614e-05</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>4.360423804973573e-06</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>2.591511374750953e-08</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>7.598995017447373e-14</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.01210143571301436</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>7.598995017447373e-14</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>7.598995017447373e-14</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>7.598995017447373e-14</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>7.598995017447371e-14</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0.7302337519158505</v>
-      </c>
-      <c r="AJ63" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK63" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.08151769455659208</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.774719473247856e-06</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3.332612684406939e-14</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.110084933620769e-11</v>
-      </c>
-      <c r="H64" t="n">
-        <v>4.099679603219512e-14</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.620514804713919e-08</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="P64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.9184646878466421</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="T64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="U64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="V64" t="n">
-        <v>5.521444349029775e-10</v>
-      </c>
-      <c r="W64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="X64" t="n">
-        <v>2.962078605883201e-08</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.576531087112599e-05</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>2.453769910112972e-11</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>4.470815270497776e-11</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>1.10747789684903e-09</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>2.220185762260022e-14</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0.9184646878466421</v>
-      </c>
-      <c r="AJ64" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK64" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.01394538577700213</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5.823572543729338e-11</v>
-      </c>
-      <c r="D65" t="n">
-        <v>7.851281062859913e-08</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.620408967105271e-12</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7.751547006232875e-14</v>
-      </c>
-      <c r="G65" t="n">
-        <v>7.010640520903812e-08</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3.076976259982942e-06</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.368191991029687e-09</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.286824213412988e-07</v>
-      </c>
-      <c r="M65" t="n">
-        <v>6.989616564907862e-14</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.9849798989810427</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="T65" t="n">
-        <v>7.056221238882539e-06</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.061885233074753e-06</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0.0001084639657609634</v>
-      </c>
-      <c r="W65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="X65" t="n">
-        <v>7.697983057735835e-05</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0.0008022427840970333</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1.26453129565588e-06</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>2.500686950818046e-05</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>4.73046204570337e-05</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>2.728275534534744e-09</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>9.89590254710342e-12</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>1.676086278709437e-06</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>2.220196632377269e-14</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0.9849798989810427</v>
-      </c>
-      <c r="AJ65" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK65" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01260245446085557</v>
-      </c>
-      <c r="C66" t="n">
-        <v>8.057901742771338e-11</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9.403012726103888e-08</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.594059263764349e-12</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5.327302266076174e-08</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2.294166610594637e-06</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4.54449279993344e-10</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7.093771522323016e-07</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.9860289278379627</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="S66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.121961944044535e-05</v>
-      </c>
-      <c r="U66" t="n">
-        <v>8.393998755594986e-07</v>
-      </c>
-      <c r="V66" t="n">
-        <v>6.991868754993318e-05</v>
-      </c>
-      <c r="W66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0.0001396778932660573</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0.001063570913861557</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>5.749549168202926e-07</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>1.907167691403736e-05</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>5.994610107876389e-05</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>2.611841541933309e-09</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>4.424801315306772e-12</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>6.444511885568737e-07</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>2.220193914530106e-14</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0.9860289278379627</v>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>o__Erysipelotrichales</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
         <is>
           <t>o__Erysipelotrichales</t>
         </is>
